--- a/data/trans_orig/P29_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P29_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>100016</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80392</v>
+        <v>80739</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123414</v>
+        <v>123610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2015182430481797</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1619788093952707</v>
+        <v>0.1626777002390764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2486639911181063</v>
+        <v>0.2490584796658747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>288</v>
@@ -762,19 +762,19 @@
         <v>196229</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175920</v>
+        <v>177315</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216896</v>
+        <v>221024</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3155256773498757</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2828703722290582</v>
+        <v>0.2851133910558007</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.348757164138744</v>
+        <v>0.3553950874431929</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>370</v>
@@ -783,19 +783,19 @@
         <v>296244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>266800</v>
+        <v>265024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>326075</v>
+        <v>326970</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.264924711330609</v>
+        <v>0.2649247113306089</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2385938475021933</v>
+        <v>0.2370053550082903</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2916015920549709</v>
+        <v>0.2924018519837321</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>65480</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49840</v>
+        <v>50773</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81665</v>
+        <v>82408</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1319334502101506</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1004205612552849</v>
+        <v>0.1023010147419395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1645448749663623</v>
+        <v>0.1660423546135733</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>171</v>
@@ -833,19 +833,19 @@
         <v>122020</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>104787</v>
+        <v>104582</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>140515</v>
+        <v>140171</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1962020490884131</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1684917736787705</v>
+        <v>0.1681631948215234</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2259407217822074</v>
+        <v>0.2253880752930932</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>238</v>
@@ -854,19 +854,19 @@
         <v>187500</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>162851</v>
+        <v>165587</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>210346</v>
+        <v>211886</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1676771269386962</v>
+        <v>0.1676771269386961</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1456337868930187</v>
+        <v>0.1480806171630936</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1881077132657349</v>
+        <v>0.1894853595546053</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>77169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60227</v>
+        <v>60720</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94685</v>
+        <v>94055</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1554859402951218</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1213501258683483</v>
+        <v>0.1223432192300966</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1907776421081278</v>
+        <v>0.1895086919539878</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>183</v>
@@ -904,19 +904,19 @@
         <v>137048</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>118108</v>
+        <v>117516</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>155392</v>
+        <v>158333</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2203665327828242</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1899121768542208</v>
+        <v>0.1889605965567618</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2498627440692048</v>
+        <v>0.254590788027403</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>253</v>
@@ -925,19 +925,19 @@
         <v>214217</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>188619</v>
+        <v>185667</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>241093</v>
+        <v>238822</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1915699838920534</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1686782924047386</v>
+        <v>0.1660384072836583</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2156038915516648</v>
+        <v>0.2135735342561555</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>67901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50766</v>
+        <v>52720</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87771</v>
+        <v>87660</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1368117229304444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1022871150079669</v>
+        <v>0.1062244822035691</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1768475808024743</v>
+        <v>0.1766233206982926</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>119</v>
@@ -975,19 +975,19 @@
         <v>92967</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77989</v>
+        <v>77342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111390</v>
+        <v>111988</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1494855863323933</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1254026152172763</v>
+        <v>0.1243623574882485</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1791096959029808</v>
+        <v>0.1800716822326729</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>174</v>
@@ -996,19 +996,19 @@
         <v>160868</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>137832</v>
+        <v>139355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>189376</v>
+        <v>185668</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1438604292076592</v>
+        <v>0.1438604292076591</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1232604886325592</v>
+        <v>0.1246223146587318</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1693550891711982</v>
+        <v>0.1660391505930968</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>58241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>42256</v>
+        <v>42340</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>77683</v>
+        <v>78618</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1173489062132555</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08514026659673533</v>
+        <v>0.08531039731861295</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1565219492518478</v>
+        <v>0.1584047706179899</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -1046,19 +1046,19 @@
         <v>42291</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32960</v>
+        <v>32304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>55816</v>
+        <v>55604</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06800119859182374</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05299786693541561</v>
+        <v>0.05194273701810687</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0897487075028278</v>
+        <v>0.08940765873861165</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>101</v>
@@ -1067,19 +1067,19 @@
         <v>100532</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83175</v>
+        <v>80919</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>124374</v>
+        <v>120591</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.08990364461892146</v>
+        <v>0.08990364461892143</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07438136991534679</v>
+        <v>0.07236391111702692</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1112246042025159</v>
+        <v>0.1078414974152765</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>16022</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9769</v>
+        <v>8872</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25107</v>
+        <v>24272</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03228250771273949</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01968315095544545</v>
+        <v>0.0178767599281022</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05058663841740837</v>
+        <v>0.04890443260909339</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1117,19 +1117,19 @@
         <v>6680</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3240</v>
+        <v>3379</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11870</v>
+        <v>11964</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01074179016946473</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005210289978618691</v>
+        <v>0.005432471407468563</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01908703118870371</v>
+        <v>0.01923730297792797</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -1138,19 +1138,19 @@
         <v>22703</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14960</v>
+        <v>14816</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>32782</v>
+        <v>31956</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.02030240455495711</v>
+        <v>0.0203024045549571</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01337818454341365</v>
+        <v>0.01324937536503527</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0293159062009019</v>
+        <v>0.02857788670308409</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>6366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2613</v>
+        <v>2552</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14260</v>
+        <v>14555</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01282725595457435</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005265507999596753</v>
+        <v>0.005142296121436371</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0287310406673808</v>
+        <v>0.02932585909913268</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1188,19 +1188,19 @@
         <v>4837</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1693</v>
+        <v>1837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11032</v>
+        <v>11228</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007777021719605373</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002722208859797706</v>
+        <v>0.002954407890686678</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0177386604862324</v>
+        <v>0.01805325927657554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1209,19 +1209,19 @@
         <v>11203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6044</v>
+        <v>5782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21138</v>
+        <v>20567</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01001851353527727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005404617057119328</v>
+        <v>0.005170834693448935</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01890282856078611</v>
+        <v>0.01839302871013059</v>
       </c>
     </row>
     <row r="11">
@@ -1238,19 +1238,19 @@
         <v>9547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5172</v>
+        <v>4263</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16587</v>
+        <v>16151</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01923605498334081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01042013113020341</v>
+        <v>0.008590089291928869</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03342092264639562</v>
+        <v>0.03254186588727676</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1259,19 +1259,19 @@
         <v>4527</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1694</v>
+        <v>1939</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9615</v>
+        <v>9700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.007279069106820848</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002724185709068915</v>
+        <v>0.003118070124515103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01546027599349346</v>
+        <v>0.01559685724212671</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1280,19 +1280,19 @@
         <v>14074</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8307</v>
+        <v>8275</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22208</v>
+        <v>22466</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01258604789935771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007428706727043614</v>
+        <v>0.007399982926550678</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01986014264987649</v>
+        <v>0.02009100087259301</v>
       </c>
     </row>
     <row r="12">
@@ -1309,19 +1309,19 @@
         <v>95567</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78893</v>
+        <v>79378</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116868</v>
+        <v>116021</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1925559186521933</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1589597001358779</v>
+        <v>0.159935756669129</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2354737528312352</v>
+        <v>0.2337666911417917</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -1330,19 +1330,19 @@
         <v>15312</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9421</v>
+        <v>10062</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22600</v>
+        <v>23607</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02462107485877889</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01514828443431387</v>
+        <v>0.01617983938783515</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03633903022442429</v>
+        <v>0.03795866875999396</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>120</v>
@@ -1351,19 +1351,19 @@
         <v>110879</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>92056</v>
+        <v>92262</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>131057</v>
+        <v>133826</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09915713802246888</v>
+        <v>0.09915713802246885</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08232365126741291</v>
+        <v>0.08250771523112901</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1172018644680094</v>
+        <v>0.1196774202637176</v>
       </c>
     </row>
     <row r="13">
@@ -1455,19 +1455,19 @@
         <v>117069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97663</v>
+        <v>95853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>143347</v>
+        <v>146024</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1220250741398665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1017972255616625</v>
+        <v>0.09991098947180603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1494160929837492</v>
+        <v>0.1522056440900304</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>483</v>
@@ -1476,19 +1476,19 @@
         <v>316114</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>291949</v>
+        <v>288961</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>345726</v>
+        <v>345301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2840099768573716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2622988685348938</v>
+        <v>0.2596145620742761</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.310614411396517</v>
+        <v>0.3102327513753474</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>593</v>
@@ -1497,19 +1497,19 @@
         <v>433183</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>396190</v>
+        <v>398653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>469924</v>
+        <v>469259</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2090225858461268</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.191172562383658</v>
+        <v>0.1923606373484293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2267511664902363</v>
+        <v>0.2264299621053234</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>132938</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>112115</v>
+        <v>112407</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>155285</v>
+        <v>155564</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1385659878015614</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1168615777327343</v>
+        <v>0.1171658556253165</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1618590209081084</v>
+        <v>0.1621503859980272</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>287</v>
@@ -1547,19 +1547,19 @@
         <v>179219</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>158830</v>
+        <v>159066</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>199083</v>
+        <v>200628</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1610177229176279</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1426988886018234</v>
+        <v>0.1429110919174846</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1788641266400361</v>
+        <v>0.1802518802156196</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>434</v>
@@ -1568,19 +1568,19 @@
         <v>312157</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>283529</v>
+        <v>284629</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>342511</v>
+        <v>345612</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1506241799899546</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1368102510004405</v>
+        <v>0.1373409375253059</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1652708074070129</v>
+        <v>0.166767206662171</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>160566</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>136423</v>
+        <v>135848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188273</v>
+        <v>190944</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1673642872906834</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1421982266226192</v>
+        <v>0.1415991280932401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1962438537016834</v>
+        <v>0.1990276465578407</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>346</v>
@@ -1618,19 +1618,19 @@
         <v>242465</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>218366</v>
+        <v>220881</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>266178</v>
+        <v>265655</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2178405943440988</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1961887115210422</v>
+        <v>0.1984487069878153</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2391451284849762</v>
+        <v>0.23867539331086</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>489</v>
@@ -1639,19 +1639,19 @@
         <v>403032</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>369623</v>
+        <v>366034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>441878</v>
+        <v>434937</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1944736847721669</v>
+        <v>0.194473684772167</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1783530894256381</v>
+        <v>0.1766212348424603</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2132180367817773</v>
+        <v>0.2098687926326376</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>166189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>140327</v>
+        <v>137808</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196504</v>
+        <v>196663</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1732246276217463</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.146268122418254</v>
+        <v>0.1436428293429503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2048230739024924</v>
+        <v>0.204988538987216</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>267</v>
@@ -1689,19 +1689,19 @@
         <v>211443</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>189832</v>
+        <v>189653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>238670</v>
+        <v>238315</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1899685266503046</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1705524681729901</v>
+        <v>0.1703919926359221</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2144308044327671</v>
+        <v>0.2141118006591503</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>402</v>
@@ -1710,19 +1710,19 @@
         <v>377631</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>341297</v>
+        <v>339948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>417166</v>
+        <v>416139</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1822173024161734</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.164684969528851</v>
+        <v>0.1640340425687279</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2012940393208724</v>
+        <v>0.2007982208306516</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>161096</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>134380</v>
+        <v>135124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>188523</v>
+        <v>189680</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1679161221693625</v>
+        <v>0.1679161221693624</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1400687454325072</v>
+        <v>0.1408448310277757</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.196503958979194</v>
+        <v>0.1977105011865331</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>148</v>
@@ -1760,19 +1760,19 @@
         <v>115070</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98964</v>
+        <v>98774</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>135739</v>
+        <v>134764</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1033832355337174</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.088913661898028</v>
+        <v>0.08874258551689686</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1219533052986327</v>
+        <v>0.1210775692989339</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>279</v>
@@ -1781,19 +1781,19 @@
         <v>276166</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>244250</v>
+        <v>246089</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>312159</v>
+        <v>309892</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1332573331937365</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1178571651990271</v>
+        <v>0.1187448213246329</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1506251110786979</v>
+        <v>0.1495310670157295</v>
       </c>
     </row>
     <row r="19">
@@ -1810,19 +1810,19 @@
         <v>32820</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21859</v>
+        <v>22776</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47585</v>
+        <v>47277</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03420915139662068</v>
+        <v>0.03420915139662069</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02278463649359616</v>
+        <v>0.02374003255550794</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04959934513950157</v>
+        <v>0.04927898161794968</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1831,19 +1831,19 @@
         <v>11733</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6964</v>
+        <v>7108</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18507</v>
+        <v>19138</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0105412971864822</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006256532307507503</v>
+        <v>0.006385756579064069</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01662730212672055</v>
+        <v>0.01719409839932669</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -1852,19 +1852,19 @@
         <v>44553</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32580</v>
+        <v>33052</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60590</v>
+        <v>60692</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0214978160242158</v>
+        <v>0.02149781602421581</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01572067458623768</v>
+        <v>0.01594843030329835</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0292364448044906</v>
+        <v>0.02928541600586306</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>11608</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5563</v>
+        <v>5973</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22406</v>
+        <v>24016</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0120990210680743</v>
+        <v>0.01209902106807431</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005798948840936744</v>
+        <v>0.006225872264105627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02335473357695601</v>
+        <v>0.02503252347788648</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1902,19 +1902,19 @@
         <v>3516</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1415</v>
+        <v>1344</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8180</v>
+        <v>7788</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003158579157828567</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001270977413024868</v>
+        <v>0.001207717329732776</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.007349141287859809</v>
+        <v>0.006997421678852841</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>16</v>
@@ -1923,19 +1923,19 @@
         <v>15123</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8573</v>
+        <v>8611</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26611</v>
+        <v>26718</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.007297362477074696</v>
+        <v>0.007297362477074697</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004136744963443116</v>
+        <v>0.004155217733311493</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01284056528684548</v>
+        <v>0.01289235946876851</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>16960</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10681</v>
+        <v>10183</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28560</v>
+        <v>27098</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01767793292335374</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01113348905562833</v>
+        <v>0.01061367720854337</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02976869343918994</v>
+        <v>0.02824493763936447</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1973,19 +1973,19 @@
         <v>2632</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>980</v>
+        <v>937</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5772</v>
+        <v>6534</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002364709243810486</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0008805213491482548</v>
+        <v>0.0008419545963573051</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.005186094896129655</v>
+        <v>0.00587034410663064</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>25</v>
@@ -1994,19 +1994,19 @@
         <v>19592</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12533</v>
+        <v>12641</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30245</v>
+        <v>28571</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.009453633411658072</v>
+        <v>0.009453633411658073</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006047515017089874</v>
+        <v>0.006099491219081399</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0145939387277322</v>
+        <v>0.01378623859731807</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>160138</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138123</v>
+        <v>137047</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>184248</v>
+        <v>185276</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1669177955887312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1439704778033174</v>
+        <v>0.1428489123937593</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1920479410327454</v>
+        <v>0.1931194868951252</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2044,19 +2044,19 @@
         <v>30848</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21508</v>
+        <v>22200</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41130</v>
+        <v>42387</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02771535810875859</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01932330583130809</v>
+        <v>0.01994554274930307</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03695327249030252</v>
+        <v>0.0380818677430679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>227</v>
@@ -2065,19 +2065,19 @@
         <v>190986</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169639</v>
+        <v>165355</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>217128</v>
+        <v>215979</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09215610186889307</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08185551740929237</v>
+        <v>0.07978807371822361</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1047702591048569</v>
+        <v>0.1042154554616531</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>149778</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126615</v>
+        <v>126804</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>175554</v>
+        <v>177748</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1432518248351123</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1210982222271197</v>
+        <v>0.1212796893437283</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.167904854257906</v>
+        <v>0.1700033881506778</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>464</v>
@@ -2190,19 +2190,19 @@
         <v>301180</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>277584</v>
+        <v>274931</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>328212</v>
+        <v>327318</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2874836277320624</v>
+        <v>0.2874836277320625</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2649607795273085</v>
+        <v>0.262428204629136</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3132867641799454</v>
+        <v>0.3124326165111956</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>613</v>
@@ -2211,19 +2211,19 @@
         <v>450957</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>414558</v>
+        <v>417214</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>485049</v>
+        <v>488470</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.215439665477072</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1980504493515833</v>
+        <v>0.1993193111028388</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2317265234296109</v>
+        <v>0.233361065771863</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>121036</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>101255</v>
+        <v>100081</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>146149</v>
+        <v>144778</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1157625707620922</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09684328925435098</v>
+        <v>0.09572057325563647</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1397811062329334</v>
+        <v>0.138469675807109</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -2261,19 +2261,19 @@
         <v>160742</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>142773</v>
+        <v>142676</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182077</v>
+        <v>181245</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1534317701245351</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1362799081810531</v>
+        <v>0.1361879796962021</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1737972305411693</v>
+        <v>0.1730026512310732</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>385</v>
@@ -2282,19 +2282,19 @@
         <v>281777</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>254449</v>
+        <v>254091</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>314188</v>
+        <v>313149</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1346159588919562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1215600436753418</v>
+        <v>0.1213892882877507</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1500998557399562</v>
+        <v>0.1496035723103143</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>151043</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126180</v>
+        <v>127139</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>176707</v>
+        <v>176694</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1444620793758019</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1206828940914928</v>
+        <v>0.1215999786345306</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.169008306267677</v>
+        <v>0.1689956821393896</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>260</v>
@@ -2332,19 +2332,19 @@
         <v>190205</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>166470</v>
+        <v>167578</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>211910</v>
+        <v>212313</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1815548774602518</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1588994235029551</v>
+        <v>0.1599574823989131</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2022735767345485</v>
+        <v>0.2026581859889912</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>404</v>
@@ -2353,19 +2353,19 @@
         <v>341247</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>307914</v>
+        <v>309161</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>378450</v>
+        <v>378271</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1630269793722179</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1471023721965205</v>
+        <v>0.1476980923091864</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1807999517942588</v>
+        <v>0.1807147706887549</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>197218</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>171081</v>
+        <v>170780</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>226307</v>
+        <v>226575</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1886249500811753</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1636269416212235</v>
+        <v>0.1633390500787384</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2164471001080223</v>
+        <v>0.2167034896779693</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>260</v>
@@ -2403,19 +2403,19 @@
         <v>197841</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>176155</v>
+        <v>173820</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>221940</v>
+        <v>219733</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.1888436315562937</v>
+        <v>0.1888436315562938</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1681440579127992</v>
+        <v>0.1659155507461938</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2118468929563276</v>
+        <v>0.2097400649669623</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>432</v>
@@ -2424,19 +2424,19 @@
         <v>395058</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>358289</v>
+        <v>359038</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>432219</v>
+        <v>434950</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1887343998915509</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1711686723276941</v>
+        <v>0.1715261557448234</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2064875350883653</v>
+        <v>0.2077922624484279</v>
       </c>
     </row>
     <row r="28">
@@ -2453,19 +2453,19 @@
         <v>209042</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>179857</v>
+        <v>183173</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>238053</v>
+        <v>240548</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1999345696448636</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1720211809462466</v>
+        <v>0.1751923027997425</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2276811234766623</v>
+        <v>0.2300679745493928</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>202</v>
@@ -2474,19 +2474,19 @@
         <v>152193</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>133031</v>
+        <v>132787</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>173187</v>
+        <v>174755</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1452715285844626</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1269816515363401</v>
+        <v>0.1267483295082948</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1653113697920112</v>
+        <v>0.1668076399186717</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>392</v>
@@ -2495,19 +2495,19 @@
         <v>361235</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>328925</v>
+        <v>326963</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>397984</v>
+        <v>398649</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1725757845654561</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.157139977697584</v>
+        <v>0.1562030496635404</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1901321556077775</v>
+        <v>0.1904500914578076</v>
       </c>
     </row>
     <row r="29">
@@ -2524,19 +2524,19 @@
         <v>39217</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27768</v>
+        <v>29014</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>53697</v>
+        <v>53346</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03750854570516783</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02655826163303221</v>
+        <v>0.02774951627569596</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05135783890201003</v>
+        <v>0.05102144950028979</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -2545,19 +2545,19 @@
         <v>14077</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9369</v>
+        <v>8945</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21180</v>
+        <v>21461</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01343709848000746</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.008942625458280187</v>
+        <v>0.008537943720015158</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02021678771480529</v>
+        <v>0.02048482212308794</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>61</v>
@@ -2566,19 +2566,19 @@
         <v>53294</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>40829</v>
+        <v>40026</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>70004</v>
+        <v>68194</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02546081586050427</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0195055790938918</v>
+        <v>0.01912209099791849</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03344367897742477</v>
+        <v>0.03257894390661038</v>
       </c>
     </row>
     <row r="30">
@@ -2595,19 +2595,19 @@
         <v>11901</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5868</v>
+        <v>6036</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19292</v>
+        <v>19426</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0113822270019606</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.005611990379600694</v>
+        <v>0.005772921507418316</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01845151523474042</v>
+        <v>0.01857988888839998</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2616,19 +2616,19 @@
         <v>4168</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1752</v>
+        <v>1915</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8292</v>
+        <v>8259</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.003978740019417372</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.001672662347107759</v>
+        <v>0.001828282141102581</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.007915034561261516</v>
+        <v>0.007883189183563781</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>20</v>
@@ -2637,19 +2637,19 @@
         <v>16069</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10059</v>
+        <v>10263</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>25584</v>
+        <v>25097</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.007676790837701473</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004805719006940819</v>
+        <v>0.004902968775672921</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01222241081603988</v>
+        <v>0.01199002976869135</v>
       </c>
     </row>
     <row r="31">
@@ -2666,19 +2666,19 @@
         <v>25965</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>18302</v>
+        <v>17687</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>36779</v>
+        <v>36078</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.0248336332543968</v>
+        <v>0.02483363325439679</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01750451085611569</v>
+        <v>0.01691616741890034</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03517684073147116</v>
+        <v>0.03450593379530439</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -2687,19 +2687,19 @@
         <v>5185</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2030</v>
+        <v>2372</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9636</v>
+        <v>10067</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004949647874367608</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.001937918702583959</v>
+        <v>0.002263999716567623</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.009198267011626697</v>
+        <v>0.00960908500380051</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>39</v>
@@ -2708,19 +2708,19 @@
         <v>31150</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22065</v>
+        <v>22988</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>40811</v>
+        <v>44427</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01488172293288368</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01054116226920702</v>
+        <v>0.01098214385348956</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01949679117597287</v>
+        <v>0.02122456971702604</v>
       </c>
     </row>
     <row r="32">
@@ -2737,19 +2737,19 @@
         <v>140355</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>118998</v>
+        <v>120425</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>164861</v>
+        <v>162484</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1342395993394293</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1138131098041913</v>
+        <v>0.1151776997643061</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1576786013165498</v>
+        <v>0.1554047470218235</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>38</v>
@@ -2758,19 +2758,19 @@
         <v>22052</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15239</v>
+        <v>15655</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>29417</v>
+        <v>30163</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02104907816860185</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01454628506621608</v>
+        <v>0.01494346587843915</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02807965000731625</v>
+        <v>0.02879166277174638</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>198</v>
@@ -2779,19 +2779,19 @@
         <v>162407</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>140716</v>
+        <v>140082</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>187457</v>
+        <v>187912</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.07758788217065755</v>
+        <v>0.07758788217065754</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0672253031089018</v>
+        <v>0.06692266039033735</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08955567749958003</v>
+        <v>0.08977289056629434</v>
       </c>
     </row>
     <row r="33">
@@ -2883,19 +2883,19 @@
         <v>237784</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>211284</v>
+        <v>208142</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>266820</v>
+        <v>265503</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2439450345768124</v>
+        <v>0.2439450345768123</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2167577661371305</v>
+        <v>0.2135349803053115</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2737329956200725</v>
+        <v>0.2723818363067687</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>571</v>
@@ -2904,19 +2904,19 @@
         <v>350905</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>325057</v>
+        <v>321945</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>378747</v>
+        <v>377436</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3872567015302188</v>
+        <v>0.3872567015302187</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3587315887547187</v>
+        <v>0.3552965987440027</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4179834334559845</v>
+        <v>0.4165367970822511</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>821</v>
@@ -2925,19 +2925,19 @@
         <v>588689</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>552220</v>
+        <v>547682</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>627216</v>
+        <v>629530</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3129867833299009</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2935975522182287</v>
+        <v>0.2911848172138849</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3334706513393575</v>
+        <v>0.3347007263674622</v>
       </c>
     </row>
     <row r="35">
@@ -2954,19 +2954,19 @@
         <v>97164</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>81139</v>
+        <v>80000</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>118354</v>
+        <v>116977</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.09968100828123344</v>
+        <v>0.09968100828123343</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08324147708490748</v>
+        <v>0.08207260695231212</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1214208397299151</v>
+        <v>0.1200076078739525</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>139</v>
@@ -2975,19 +2975,19 @@
         <v>94544</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>77484</v>
+        <v>79503</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>111913</v>
+        <v>111136</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1043382173574198</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08551076514108349</v>
+        <v>0.08773861582057906</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1235068844357244</v>
+        <v>0.1226494994810813</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>244</v>
@@ -2996,19 +2996,19 @@
         <v>191707</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>167840</v>
+        <v>170700</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>215760</v>
+        <v>220898</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1019246627286638</v>
+        <v>0.1019246627286637</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08923486788150696</v>
+        <v>0.09075592728274322</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1147128884662385</v>
+        <v>0.117444221862829</v>
       </c>
     </row>
     <row r="36">
@@ -3025,19 +3025,19 @@
         <v>80999</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>62746</v>
+        <v>63841</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>103102</v>
+        <v>102655</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.08309780690733552</v>
+        <v>0.08309780690733551</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06437188788084827</v>
+        <v>0.06549479444072583</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1057728956770014</v>
+        <v>0.1053149295836663</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>135</v>
@@ -3046,19 +3046,19 @@
         <v>102939</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>85923</v>
+        <v>85134</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>120976</v>
+        <v>120074</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.113602859191623</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09482455631681304</v>
+        <v>0.09395349361371538</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1335086894429352</v>
+        <v>0.1325133822145966</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>206</v>
@@ -3067,19 +3067,19 @@
         <v>183938</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>160295</v>
+        <v>160311</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>214319</v>
+        <v>215074</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.09779390388453661</v>
+        <v>0.0977939038845366</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08522371873000535</v>
+        <v>0.08523195143971295</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1139465499029878</v>
+        <v>0.1143481062949061</v>
       </c>
     </row>
     <row r="37">
@@ -3096,19 +3096,19 @@
         <v>170000</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>144418</v>
+        <v>144237</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>198323</v>
+        <v>198416</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1744045715468993</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.148159330528758</v>
+        <v>0.147974524951576</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2034615873885929</v>
+        <v>0.2035571389225916</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>209</v>
@@ -3117,19 +3117,19 @@
         <v>164796</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>141498</v>
+        <v>144294</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>188606</v>
+        <v>187678</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1818677504916507</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1561569948997747</v>
+        <v>0.1592419379974643</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2081449107136206</v>
+        <v>0.2071207869941877</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>350</v>
@@ -3138,19 +3138,19 @@
         <v>334796</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>300794</v>
+        <v>299801</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>372095</v>
+        <v>371852</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.178000028473448</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1599224290471699</v>
+        <v>0.1593945734081373</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1978309413400829</v>
+        <v>0.1977016094497194</v>
       </c>
     </row>
     <row r="38">
@@ -3167,19 +3167,19 @@
         <v>229853</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>201925</v>
+        <v>200693</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>262466</v>
+        <v>259092</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2358081189960103</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2071564640665018</v>
+        <v>0.2058933226726276</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2692665175602402</v>
+        <v>0.2658046609603236</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>158</v>
@@ -3188,19 +3188,19 @@
         <v>118365</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>100697</v>
+        <v>99382</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>139688</v>
+        <v>138400</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1306274700247408</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1111290135881079</v>
+        <v>0.1096774987327318</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1541585577705906</v>
+        <v>0.1527379182164565</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>351</v>
@@ -3209,19 +3209,19 @@
         <v>348218</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>311028</v>
+        <v>311888</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>390036</v>
+        <v>386808</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1851363482020653</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1653635512551841</v>
+        <v>0.1658209612497627</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2073696516632464</v>
+        <v>0.2056532478504681</v>
       </c>
     </row>
     <row r="39">
@@ -3238,19 +3238,19 @@
         <v>28852</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>19144</v>
+        <v>19043</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>43552</v>
+        <v>44861</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02959990284668147</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01963964742198985</v>
+        <v>0.01953625380545121</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04468008705804833</v>
+        <v>0.04602373849399694</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>35</v>
@@ -3259,19 +3259,19 @@
         <v>29258</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>20045</v>
+        <v>20254</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>41529</v>
+        <v>43822</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03228950480390329</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02212183846649863</v>
+        <v>0.02235260079724842</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04583096748779373</v>
+        <v>0.04836189753195277</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>63</v>
@@ -3280,19 +3280,19 @@
         <v>58111</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>43645</v>
+        <v>44015</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>73503</v>
+        <v>76357</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03089564398572424</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02320488209627583</v>
+        <v>0.02340139547646717</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03907909587484812</v>
+        <v>0.04059673480003129</v>
       </c>
     </row>
     <row r="40">
@@ -3309,19 +3309,19 @@
         <v>8342</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4082</v>
+        <v>4261</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15327</v>
+        <v>15144</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.008558205388270696</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004187428446004127</v>
+        <v>0.004371023600151529</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0157243938160515</v>
+        <v>0.01553610865162972</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>11</v>
@@ -3330,19 +3330,19 @@
         <v>6367</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3396</v>
+        <v>3457</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11708</v>
+        <v>11081</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007026755127145624</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003748059153605789</v>
+        <v>0.003814668014781251</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01292105701749759</v>
+        <v>0.01222866060265045</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>21</v>
@@ -3351,19 +3351,19 @@
         <v>14709</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>9543</v>
+        <v>8921</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>23062</v>
+        <v>21780</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00782041476449109</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0050736105777042</v>
+        <v>0.0047431929280081</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01226136576218082</v>
+        <v>0.01157965801020607</v>
       </c>
     </row>
     <row r="41">
@@ -3380,19 +3380,19 @@
         <v>28473</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>19822</v>
+        <v>18584</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>39443</v>
+        <v>39334</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02921101495602752</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02033528288750976</v>
+        <v>0.01906532442588414</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04046499939554132</v>
+        <v>0.04035353884840191</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>14</v>
@@ -3401,19 +3401,19 @@
         <v>8829</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4892</v>
+        <v>4925</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>15142</v>
+        <v>14647</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.009743988756059245</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005399144827779547</v>
+        <v>0.005435460970921241</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01671065159445782</v>
+        <v>0.016164897089417</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>48</v>
@@ -3422,19 +3422,19 @@
         <v>37303</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>27958</v>
+        <v>27781</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>49947</v>
+        <v>49766</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01983259126980402</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01486449374194083</v>
+        <v>0.01477013176556654</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02655531439163013</v>
+        <v>0.02645905352285762</v>
       </c>
     </row>
     <row r="42">
@@ -3451,19 +3451,19 @@
         <v>93278</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>77906</v>
+        <v>76599</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>112605</v>
+        <v>110646</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.09569433650072942</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07992401027181542</v>
+        <v>0.07858392917774622</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1155225324021768</v>
+        <v>0.1135123130709685</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>46</v>
@@ -3472,19 +3472,19 @@
         <v>30126</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>21700</v>
+        <v>22215</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>39814</v>
+        <v>40613</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.03324675271723881</v>
+        <v>0.03324675271723882</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02394790145722655</v>
+        <v>0.02451629246680575</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04393865653098665</v>
+        <v>0.04482070724761725</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>160</v>
@@ -3493,19 +3493,19 @@
         <v>123403</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>104348</v>
+        <v>105003</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>142372</v>
+        <v>144975</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06560962336136612</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05547830617624765</v>
+        <v>0.05582662686986718</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07569449637754438</v>
+        <v>0.07707877243240283</v>
       </c>
     </row>
     <row r="43">
@@ -3597,19 +3597,19 @@
         <v>604646</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>555196</v>
+        <v>560233</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>655842</v>
+        <v>654291</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1739491974453518</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1597231008894973</v>
+        <v>0.1611720708362019</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1886776339490792</v>
+        <v>0.1882313592909427</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1806</v>
@@ -3618,19 +3618,19 @@
         <v>1164427</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1114024</v>
+        <v>1113887</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1215311</v>
+        <v>1215821</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3156724191738093</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.302008341532309</v>
+        <v>0.3019712472137699</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3294669396596487</v>
+        <v>0.3296050422867297</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2397</v>
@@ -3639,19 +3639,19 @@
         <v>1769073</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1700482</v>
+        <v>1700467</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1842060</v>
+        <v>1842999</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2469147715635593</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2373413191962104</v>
+        <v>0.2373391772146977</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2571017723384731</v>
+        <v>0.2572328001496691</v>
       </c>
     </row>
     <row r="45">
@@ -3668,19 +3668,19 @@
         <v>416617</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>376724</v>
+        <v>378142</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>454375</v>
+        <v>462087</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1198556640631818</v>
+        <v>0.1198556640631817</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1083788901951779</v>
+        <v>0.1087866784041342</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1307181858814364</v>
+        <v>0.1329366628221585</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>852</v>
@@ -3689,19 +3689,19 @@
         <v>556524</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>523600</v>
+        <v>520791</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>595205</v>
+        <v>592273</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1508719811858454</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.1419462954670478</v>
+        <v>0.1411847121697296</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1613580080602145</v>
+        <v>0.1605632262049931</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1301</v>
@@ -3710,19 +3710,19 @@
         <v>973142</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>912357</v>
+        <v>914436</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1029037</v>
+        <v>1027261</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1358242778040103</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.1273403428812025</v>
+        <v>0.1276305066590005</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1436257219031578</v>
+        <v>0.1433778392014931</v>
       </c>
     </row>
     <row r="46">
@@ -3739,19 +3739,19 @@
         <v>469778</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>427002</v>
+        <v>428490</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>514742</v>
+        <v>516094</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1351492613200179</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1228432969010857</v>
+        <v>0.1232713564066972</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1480849732604677</v>
+        <v>0.1484737800753895</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>924</v>
@@ -3760,19 +3760,19 @@
         <v>672657</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>629433</v>
+        <v>633296</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>712261</v>
+        <v>712292</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.182355028461801</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.170637362220119</v>
+        <v>0.1716844867332623</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1930915210612821</v>
+        <v>0.1931000801510195</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1352</v>
@@ -3781,19 +3781,19 @@
         <v>1142434</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1083464</v>
+        <v>1080382</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1204687</v>
+        <v>1200296</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1594529418261674</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1512222064510723</v>
+        <v>0.1507921360576879</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.16814168271315</v>
+        <v>0.1675289088437329</v>
       </c>
     </row>
     <row r="47">
@@ -3810,19 +3810,19 @@
         <v>601307</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>557163</v>
+        <v>550400</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>657095</v>
+        <v>658398</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.1729887029270896</v>
+        <v>0.1729887029270897</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1602890604800358</v>
+        <v>0.1583433922500912</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1890382323153268</v>
+        <v>0.1894131066297327</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>855</v>
@@ -3831,19 +3831,19 @@
         <v>667045</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>626116</v>
+        <v>628033</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>710854</v>
+        <v>717841</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1808337655761827</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1697380821442185</v>
+        <v>0.1702576870237474</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1927101615067514</v>
+        <v>0.194604277958034</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1358</v>
@@ -3852,19 +3852,19 @@
         <v>1268352</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1200816</v>
+        <v>1201794</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1342523</v>
+        <v>1340117</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1770276987472746</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1676014251192262</v>
+        <v>0.1677379788806405</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1873799617634966</v>
+        <v>0.1870441413107618</v>
       </c>
     </row>
     <row r="48">
@@ -3881,19 +3881,19 @@
         <v>658232</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>604189</v>
+        <v>608026</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>710778</v>
+        <v>713995</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1893653654611077</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1738176534161263</v>
+        <v>0.1749214338720348</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.204482057955133</v>
+        <v>0.2054074613649454</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>562</v>
@@ -3902,19 +3902,19 @@
         <v>427918</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>392419</v>
+        <v>396394</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>466035</v>
+        <v>465798</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1160071962768441</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1063834743048313</v>
+        <v>0.1074612264119969</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.126340587456805</v>
+        <v>0.1262763348030636</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1123</v>
@@ -3923,19 +3923,19 @@
         <v>1086151</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1024464</v>
+        <v>1025974</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1149275</v>
+        <v>1154530</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1515972363887525</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1429874094008506</v>
+        <v>0.1431982496345017</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.160407751266093</v>
+        <v>0.1611412144498851</v>
       </c>
     </row>
     <row r="49">
@@ -3952,19 +3952,19 @@
         <v>116911</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>95567</v>
+        <v>98061</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>141675</v>
+        <v>141527</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.03363395987492564</v>
+        <v>0.03363395987492563</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02749358505258369</v>
+        <v>0.02821086163855287</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04075829170740937</v>
+        <v>0.04071549497140639</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>84</v>
@@ -3973,19 +3973,19 @@
         <v>61749</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>48918</v>
+        <v>48252</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>78012</v>
+        <v>78000</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.01673995806356401</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01326157588555441</v>
+        <v>0.01308087746428531</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.0211489110615121</v>
+        <v>0.02114550696629527</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>198</v>
@@ -3994,19 +3994,19 @@
         <v>178660</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>153300</v>
+        <v>154070</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>206507</v>
+        <v>206419</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.02493615773434305</v>
+        <v>0.02493615773434304</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.0213965013129369</v>
+        <v>0.02150399110544344</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.02882278162394015</v>
+        <v>0.02881045389180069</v>
       </c>
     </row>
     <row r="50">
@@ -4023,19 +4023,19 @@
         <v>38217</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>27031</v>
+        <v>27036</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>53514</v>
+        <v>54140</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01099447031349955</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.007776533515621019</v>
+        <v>0.007777985337817878</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.01539536411047018</v>
+        <v>0.01557538734840292</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>30</v>
@@ -4044,19 +4044,19 @@
         <v>18888</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>13184</v>
+        <v>12210</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>28701</v>
+        <v>26017</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.00512038571373361</v>
+        <v>0.005120385713733611</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.003574108015220555</v>
+        <v>0.003310158546505306</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.007780756096179162</v>
+        <v>0.00705301444162135</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>69</v>
@@ -4065,19 +4065,19 @@
         <v>57104</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>43468</v>
+        <v>43612</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>71700</v>
+        <v>74834</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.007970223827894991</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.006066908493535375</v>
+        <v>0.006087105580008482</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01000740547089745</v>
+        <v>0.01044483378867104</v>
       </c>
     </row>
     <row r="51">
@@ -4094,19 +4094,19 @@
         <v>80945</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>66292</v>
+        <v>65631</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>100708</v>
+        <v>98730</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.02328692050627269</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.01907131625769267</v>
+        <v>0.01888126257978279</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.02897246366209369</v>
+        <v>0.02840325935783589</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>33</v>
@@ -4115,19 +4115,19 @@
         <v>21174</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>15146</v>
+        <v>14634</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>30460</v>
+        <v>29902</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.005740122672130026</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.00410613847944973</v>
+        <v>0.003967159712809955</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.008257625457810209</v>
+        <v>0.008106241216884491</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>129</v>
@@ -4136,19 +4136,19 @@
         <v>102119</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>85471</v>
+        <v>86254</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>121888</v>
+        <v>121281</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.01425302921951218</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.01192949101080601</v>
+        <v>0.012038736024736</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.01701229045746632</v>
+        <v>0.01692759728246333</v>
       </c>
     </row>
     <row r="52">
@@ -4165,19 +4165,19 @@
         <v>489338</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>449918</v>
+        <v>449833</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>532537</v>
+        <v>532433</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1407764580885534</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.129435728100603</v>
+        <v>0.1294113955754807</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1532043419366551</v>
+        <v>0.1531744401488699</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>150</v>
@@ -4186,19 +4186,19 @@
         <v>98338</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>85045</v>
+        <v>83392</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>115500</v>
+        <v>114133</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.02665914287608991</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.02305553930220402</v>
+        <v>0.02260720972425838</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.0313115793226522</v>
+        <v>0.03094115604370793</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>705</v>
@@ -4207,19 +4207,19 @@
         <v>587676</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>542586</v>
+        <v>544736</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>632527</v>
+        <v>635358</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.08202366288848564</v>
+        <v>0.08202366288848563</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.07573026980821536</v>
+        <v>0.07603041392558005</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.08828364339830833</v>
+        <v>0.08867880590422778</v>
       </c>
     </row>
     <row r="53">
